--- a/ESERCIZIO 1.xlsx
+++ b/ESERCIZIO 1.xlsx
@@ -510,12 +510,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -530,8 +548,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -815,7 +836,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,62 +915,62 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
     </row>
